--- a/coef.xlsx
+++ b/coef.xlsx
@@ -411,7 +411,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>01:23:57</t>
+          <t>01:25:18</t>
         </is>
       </c>
     </row>
